--- a/results/pseudomonas_putida/Multistress_Study/reaction_sensitivity_m9-EX_glc_e:7.44-osmotic_stress_60min.xlsx
+++ b/results/pseudomonas_putida/Multistress_Study/reaction_sensitivity_m9-EX_glc_e:7.44-osmotic_stress_60min.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>666</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>659</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>650</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>629</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6">
@@ -495,10 +495,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7">
@@ -506,10 +506,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="8">
@@ -517,10 +517,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>575</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9">
@@ -528,10 +528,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10">
@@ -539,10 +539,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11">
@@ -550,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12">
@@ -561,10 +561,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>591</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13">
@@ -572,10 +572,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>587</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14">
@@ -583,10 +583,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>591</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15">
@@ -594,10 +594,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>579</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16">
@@ -605,53 +605,9 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
         <v>621</v>
       </c>
     </row>
@@ -666,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,10 +647,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>769</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>775</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4">
@@ -713,10 +669,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>772</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5">
@@ -724,10 +680,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="6">
@@ -735,10 +691,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>806</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7">
@@ -746,10 +702,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>797</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8">
@@ -757,10 +713,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>802</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9">
@@ -768,10 +724,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>799</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10">
@@ -779,10 +735,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>774</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11">
@@ -790,10 +746,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="12">
@@ -801,10 +757,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>766</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13">
@@ -812,10 +768,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>768</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14">
@@ -823,10 +779,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>762</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15">
@@ -834,10 +790,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>767</v>
+        <v>664</v>
       </c>
     </row>
     <row r="16">
@@ -845,53 +801,9 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16</v>
-      </c>
-      <c r="C17" t="n">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>17</v>
-      </c>
-      <c r="C18" t="n">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="n">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="n">
         <v>659</v>
       </c>
     </row>
